--- a/test/data/excel2007.xlsx
+++ b/test/data/excel2007.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="cp1251" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -55,7 +55,8 @@
     <t>Behringer DX-626</t>
   </si>
   <si>
-    <t>СПБ: 1; МСК: 2</t>
+    <t>СПБ: 1; 
+МСК: 2;</t>
   </si>
 </sst>
 </file>
@@ -588,11 +589,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1104,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9">
         <v>490</v>
       </c>
@@ -1120,9 +1124,12 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
